--- a/pcitc-stp/src/main/resources/static/budget/budget_stocktotal_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_stocktotal_template.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>单位:万元</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -61,6 +61,10 @@
   <si>
     <t>${nd}年科技经费预算</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,11 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -157,6 +158,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -476,89 +489,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1"/>
+    <row r="7" spans="1:11" ht="21" customHeight="1"/>
+    <row r="8" spans="1:11" ht="21" customHeight="1"/>
+    <row r="9" spans="1:11" ht="21" customHeight="1"/>
+    <row r="10" spans="1:11" ht="21" customHeight="1"/>
+    <row r="11" spans="1:11" ht="21" customHeight="1"/>
+    <row r="12" spans="1:11" ht="21" customHeight="1"/>
+    <row r="13" spans="1:11" ht="21" customHeight="1"/>
+    <row r="14" spans="1:11" ht="21" customHeight="1"/>
+    <row r="15" spans="1:11" ht="21" customHeight="1"/>
+    <row r="16" spans="1:11" ht="21" customHeight="1"/>
+    <row r="17" ht="21" customHeight="1"/>
+    <row r="18" ht="21" customHeight="1"/>
+    <row r="19" ht="21" customHeight="1"/>
+    <row r="20" ht="21" customHeight="1"/>
+    <row r="21" ht="21" customHeight="1"/>
+    <row r="22" ht="21" customHeight="1"/>
+    <row r="23" ht="21" customHeight="1"/>
+    <row r="24" ht="21" customHeight="1"/>
+    <row r="25" ht="21" customHeight="1"/>
+    <row r="26" ht="21" customHeight="1"/>
+    <row r="27" ht="21" customHeight="1"/>
+    <row r="28" ht="21" customHeight="1"/>
+    <row r="29" ht="21" customHeight="1"/>
+    <row r="30" ht="21" customHeight="1"/>
+    <row r="31" ht="21" customHeight="1"/>
+    <row r="32" ht="21" customHeight="1"/>
+    <row r="33" ht="21" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
+    <row r="35" ht="21" customHeight="1"/>
+    <row r="36" ht="21" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1"/>
+    <row r="38" ht="21" customHeight="1"/>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+    <row r="41" ht="21" customHeight="1"/>
+    <row r="42" ht="21" customHeight="1"/>
+    <row r="43" ht="21" customHeight="1"/>
+    <row r="44" ht="21" customHeight="1"/>
+    <row r="45" ht="21" customHeight="1"/>
+    <row r="46" ht="21" customHeight="1"/>
+    <row r="47" ht="21" customHeight="1"/>
+    <row r="48" ht="21" customHeight="1"/>
+    <row r="49" ht="21" customHeight="1"/>
+    <row r="50" ht="21" customHeight="1"/>
+    <row r="51" ht="21" customHeight="1"/>
+    <row r="52" ht="21" customHeight="1"/>
+    <row r="53" ht="21" customHeight="1"/>
+    <row r="54" ht="21" customHeight="1"/>
+    <row r="55" ht="21" customHeight="1"/>
+    <row r="56" ht="21" customHeight="1"/>
+    <row r="57" ht="21" customHeight="1"/>
+    <row r="58" ht="21" customHeight="1"/>
+    <row r="59" ht="21" customHeight="1"/>
+    <row r="60" ht="21" customHeight="1"/>
+    <row r="61" ht="21" customHeight="1"/>
+    <row r="62" ht="21" customHeight="1"/>
+    <row r="63" ht="21" customHeight="1"/>
+    <row r="64" ht="21" customHeight="1"/>
+    <row r="65" ht="21" customHeight="1"/>
+    <row r="66" ht="21" customHeight="1"/>
+    <row r="67" ht="21" customHeight="1"/>
+    <row r="68" ht="21" customHeight="1"/>
+    <row r="69" ht="21" customHeight="1"/>
+    <row r="70" ht="21" customHeight="1"/>
+    <row r="71" ht="21" customHeight="1"/>
+    <row r="72" ht="21" customHeight="1"/>
+    <row r="73" ht="21" customHeight="1"/>
+    <row r="74" ht="21" customHeight="1"/>
+    <row r="75" ht="21" customHeight="1"/>
+    <row r="76" ht="21" customHeight="1"/>
+    <row r="77" ht="21" customHeight="1"/>
+    <row r="78" ht="21" customHeight="1"/>
+    <row r="79" ht="21" customHeight="1"/>
+    <row r="80" ht="21" customHeight="1"/>
+    <row r="81" ht="21" customHeight="1"/>
+    <row r="82" ht="21" customHeight="1"/>
+    <row r="83" ht="21" customHeight="1"/>
+    <row r="84" ht="21" customHeight="1"/>
+    <row r="85" ht="21" customHeight="1"/>
+    <row r="86" ht="21" customHeight="1"/>
+    <row r="87" ht="21" customHeight="1"/>
+    <row r="88" ht="21" customHeight="1"/>
+    <row r="89" ht="21" customHeight="1"/>
+    <row r="90" ht="21" customHeight="1"/>
+    <row r="91" ht="21" customHeight="1"/>
+    <row r="92" ht="21" customHeight="1"/>
+    <row r="93" ht="21" customHeight="1"/>
+    <row r="94" ht="21" customHeight="1"/>
+    <row r="95" ht="21" customHeight="1"/>
+    <row r="96" ht="21" customHeight="1"/>
+    <row r="97" ht="21" customHeight="1"/>
+    <row r="98" ht="21" customHeight="1"/>
+    <row r="99" ht="21" customHeight="1"/>
+    <row r="100" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:K1"/>
